--- a/biology/Botanique/Picea_fennica/Picea_fennica.xlsx
+++ b/biology/Botanique/Picea_fennica/Picea_fennica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Picea fennica ( latin : Picea ×fennica) est une espèce de plante ligneuses du genre Picea, famille des Pinaceae, espèce hybride entre l'épicéa commun (Picea abies) et l'épicéa de Sibérie (Picea obovata), apparu après la fin de la dernière glaciation d'Eurasie, lorsque les aires de répartition de deux espèces se sont rencontrées entre les montagnes de l'Oural et la Scandinavie[1].
-L'espèce est proche de l'épicéa de Sibérie, les cônes sont plus petits que ceux de l'épicéa commun, moins de 7 cm de long (rarement montant jusqu'à 10), les graines sont petites[2].
+Picea fennica ( latin : Picea ×fennica) est une espèce de plante ligneuses du genre Picea, famille des Pinaceae, espèce hybride entre l'épicéa commun (Picea abies) et l'épicéa de Sibérie (Picea obovata), apparu après la fin de la dernière glaciation d'Eurasie, lorsque les aires de répartition de deux espèces se sont rencontrées entre les montagnes de l'Oural et la Scandinavie.
+L'espèce est proche de l'épicéa de Sibérie, les cônes sont plus petits que ceux de l'épicéa commun, moins de 7 cm de long (rarement montant jusqu'à 10), les graines sont petites.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trouvé dans le nord de l'Europe jusqu'à 67-70 ° de latitude nord[2],[3]: en Norvège, Suède, Finlande [4], au nord-ouest, au nord, au centre et en partie à l'est de la Russie européenne (République de Carélie, République des Komis, Oblast de Mourmansk, Arkhangelsk, Vologda, Léningrad, Kostroma, Ivanovo, Nijni Novgorod, régions de Kirov, la République d'Oudmourtie, la République des Maris, la République du Tatarstan, l'extrême nord de la République de Tchouvachie (rive gauche de la Volga) [5] .
-La proportion de l'hybride dans la composition de la forêt de conifères peut atteindre 75% ( district de Medvezhyegorsk en Carélie)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trouvé dans le nord de l'Europe jusqu'à 67-70 ° de latitude nord,: en Norvège, Suède, Finlande , au nord-ouest, au nord, au centre et en partie à l'est de la Russie européenne (République de Carélie, République des Komis, Oblast de Mourmansk, Arkhangelsk, Vologda, Léningrad, Kostroma, Ivanovo, Nijni Novgorod, régions de Kirov, la République d'Oudmourtie, la République des Maris, la République du Tatarstan, l'extrême nord de la République de Tchouvachie (rive gauche de la Volga)  .
+La proportion de l'hybride dans la composition de la forêt de conifères peut atteindre 75% ( district de Medvezhyegorsk en Carélie).
 </t>
         </is>
       </c>
@@ -545,11 +559,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Picea fennica (Regel) Kom. Fl.S.S.S.R. 1: 145. 1934.
-Synonymie
-Abies excelsa var. medioxima (Nyl.) A.Murray bis (1867)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea fennica (Regel) Kom. Fl.S.S.S.R. 1: 145. 1934.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Picea_fennica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_fennica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abies excelsa var. medioxima (Nyl.) A.Murray bis (1867)
 Picea abies f. fennica (Regel) Lindm. (1918)
 Picea abies subsp. fennica (Regel) Parfenov (1971)
 Picea excelsa f. fennica (Regel) Neuman (1901)
@@ -565,31 +616,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Picea_fennica</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Picea_fennica</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Aljos Farjon, A Handbook of the World's Conifers: Revised and Updated Edition, BRILL, 27 avril 2010 (ISBN 978-90-474-3062-9, lire en ligne)
@@ -602,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Picea_fennica</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Picea_fennica</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Бобров Е. Г. Picea ×fennica (Regel) Kom. — Ель финская // Флора европейской части СССР / Отв. ред. Ан. А. Фёдоров. — Л.: Наука, Лен. отд, 1974. — Т. I. Ред. тома Н. Н. Цвелёв и С. К. Черепанов. — С. 105. — 404 с. — 4200 экз.
 Комаров В. Л. Picea fennica Rgl. — Ель финская // Флора СССР : в 30 т. / гл. ред. В. Л. Комаров. — Л. : Изд-во АН СССР, 1934. — Т. 1 / ред. тома М. М. Ильин. — С. 145. — 302, XVI с. — 5000 экз.
@@ -635,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Picea_fennica</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Picea_fennica</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Picea × fennica: информация о таксоне в проекте «Плантариум» (определителе растений и иллюстрированном атласе видов). (Проверено 26 апреля 2013)
  Portail de la botanique   Portail de la Sibérie   Portail du bois et de la forêt                   </t>
